--- a/explainable_low_disc/test/discriminated_instances.xlsx
+++ b/explainable_low_disc/test/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>143</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>170</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>185</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>255</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>257</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>285</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>403</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>451</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>460</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>519</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>585</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>594</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>662</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>994</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1039</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1155</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1216</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1254</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1274</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1445</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1531</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1535</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1581</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1630</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1721</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1724</v>
+        <v>813</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1739</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1751</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1785</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1806</v>
+        <v>994</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1844</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1872</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1984</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="45">
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2111</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="46">
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2118</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="47">
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="48">
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2134</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="49">
@@ -820,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2202</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="50">
@@ -828,7 +828,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2268</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="51">
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2359</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="52">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2392</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="53">
@@ -852,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2441</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="54">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2478</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="56">
@@ -876,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2661</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="57">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2730</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="58">
@@ -892,7 +892,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2818</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="59">
@@ -900,7 +900,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2892</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="60">
@@ -908,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2906</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="61">
@@ -916,7 +916,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2909</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="62">
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2939</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="63">
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2968</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="64">
@@ -940,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3089</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="65">
@@ -948,7 +948,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3142</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="66">
@@ -956,7 +956,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3162</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="67">
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3171</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="68">
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3194</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="69">
@@ -980,7 +980,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3199</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="70">
@@ -988,7 +988,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3228</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71">
@@ -996,7 +996,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3268</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="72">
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3282</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="73">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3322</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="74">
@@ -1020,7 +1020,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3496</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="75">
@@ -1028,7 +1028,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3531</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="76">
@@ -1036,7 +1036,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3678</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="77">
@@ -1044,7 +1044,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3681</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="78">
@@ -1052,7 +1052,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3724</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="79">
@@ -1060,7 +1060,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3767</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="80">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3792</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="81">
@@ -1076,7 +1076,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3843</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="82">
@@ -1084,7 +1084,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3935</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="83">
@@ -1092,7 +1092,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3984</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="84">
@@ -1100,7 +1100,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3992</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="85">
@@ -1108,7 +1108,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4012</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="86">
@@ -1116,7 +1116,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4109</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="87">
@@ -1124,7 +1124,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4128</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="88">
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4146</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="89">
@@ -1140,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4189</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="90">
@@ -1148,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4217</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="91">
@@ -1156,7 +1156,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4219</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="92">
@@ -1164,7 +1164,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4238</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="93">
@@ -1172,7 +1172,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4251</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="94">
@@ -1180,7 +1180,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4252</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="95">
@@ -1188,7 +1188,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4256</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="96">
@@ -1196,7 +1196,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4261</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="97">
@@ -1204,7 +1204,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4450</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="98">
@@ -1212,7 +1212,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4492</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="99">
@@ -1220,7 +1220,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4519</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="100">
@@ -1228,7 +1228,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4572</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="101">
@@ -1236,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4624</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="102">
@@ -1244,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4645</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="103">
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4684</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="104">
@@ -1260,7 +1260,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4698</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="105">
@@ -1268,7 +1268,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4811</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="106">
@@ -1276,7 +1276,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4877</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="107">
@@ -1284,7 +1284,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4907</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="108">
@@ -1292,7 +1292,671 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>4945</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4956</v>
       </c>
     </row>
   </sheetData>
